--- a/Vorlage_30.xlsx
+++ b/Vorlage_30.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\wswin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\Vorlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FC771C-EA1D-43EB-B503-25DD04AEB483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A56BE65-2BB9-478C-B786-3CD11C59B837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Tag</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Min-MaxØ</t>
+  </si>
+  <si>
+    <t>Vorlage</t>
   </si>
 </sst>
 </file>
@@ -695,9 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -717,9 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A852EB4-E3A2-4E9A-803A-099CF183F6C1}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1730,21 +1729,17 @@
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="26" cm="1">
-        <f t="array" ref="D36">AVERAGE(VALUE(EXP!A1:A43200))</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="11" cm="1">
-        <f t="array" ref="E36">AVERAGE(VALUE(EXP!C1:C43200))</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="27" cm="1">
-        <f t="array" ref="F36">SUM(VALUE(EXP!B1:B43200))</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="11" cm="1">
-        <f t="array" ref="G36">AVERAGE(VALUE(EXP!D1:D43200))</f>
-        <v>0</v>
+      <c r="D36" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
